--- a/biology/Microbiologie/Filobacteriaceae/Filobacteriaceae.xlsx
+++ b/biology/Microbiologie/Filobacteriaceae/Filobacteriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Filobacteriaceae est une des deux familles de l'ordre des Sphingobacteriales du phylum Bacteroidota. Elle contient un seul genre de bactéries, les Filobacterium.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Filobacteriaceae est décrite en 2016 par Ike et placée dans l'ordre Sphingobacteriales après la description de la souche SMR-C isolée d'un rat de laboratoire de type Wistar/MS[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Filobacteriaceae est décrite en 2016 par Ike et placée dans l'ordre Sphingobacteriales après la description de la souche SMR-C isolée d'un rat de laboratoire de type Wistar/MS,.
 </t>
         </is>
       </c>
@@ -544,12 +558,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nomenclature
-Le nom correct complet validé par l'ICSP (avec auteur) de ce taxon est Filobacteriaceae Ike et al. 2016[3].
-Étymologie
-L'étymologie de la classe Filobacteriaceae est la suivante :  Fi.lo.bac.te.ri.a.ce’ae. N.L. neut. n. Filobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Filobacteriaceae, la famille du genre Filobacterium[2],[4].
-Liste des genres
-Selon la LPSN  (24 février 2023)[3], la famille Filobacteriaceae comprend 1 genre publié de manière valide :
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet validé par l'ICSP (avec auteur) de ce taxon est Filobacteriaceae Ike et al. 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Filobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la classe Filobacteriaceae est la suivante :  Fi.lo.bac.te.ri.a.ce’ae. N.L. neut. n. Filobacterium, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Filobacteriaceae, la famille du genre Filobacterium,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Filobacteriaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filobacteriaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (24 février 2023), la famille Filobacteriaceae comprend 1 genre publié de manière valide :
 Filobacterium Ike et al. 2016</t>
         </is>
       </c>
